--- a/RegressionTests/Unit_Test_15/aptrans_anon.SAA_Pension_Remit_-_07.20_SPPP__601013_.xlsx
+++ b/RegressionTests/Unit_Test_15/aptrans_anon.SAA_Pension_Remit_-_07.20_SPPP__601013_.xlsx
@@ -635,8 +635,8 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
